--- a/natmiOut/OldD2/LR-pairs_lrc2p/Lrpap1-Ldlr.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Lrpap1-Ldlr.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.973812628426501</v>
+        <v>8.995514</v>
       </c>
       <c r="H2">
-        <v>8.973812628426501</v>
+        <v>17.991028</v>
       </c>
       <c r="I2">
-        <v>0.1392764350894158</v>
+        <v>0.1370970087225826</v>
       </c>
       <c r="J2">
-        <v>0.1392764350894158</v>
+        <v>0.09932846147431178</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.78334550536005</v>
+        <v>2.7846805</v>
       </c>
       <c r="N2">
-        <v>2.78334550536005</v>
+        <v>5.569361</v>
       </c>
       <c r="O2">
-        <v>0.05977107205645091</v>
+        <v>0.05544016620420027</v>
       </c>
       <c r="P2">
-        <v>0.05977107205645091</v>
+        <v>0.03953565392176784</v>
       </c>
       <c r="Q2">
-        <v>24.97722104527416</v>
+        <v>25.049632423277</v>
       </c>
       <c r="R2">
-        <v>24.97722104527416</v>
+        <v>100.198529693108</v>
       </c>
       <c r="S2">
-        <v>0.008324701837495077</v>
+        <v>0.007600680949678674</v>
       </c>
       <c r="T2">
-        <v>0.008324701837495077</v>
+        <v>0.00392701567743004</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.973812628426501</v>
+        <v>8.995514</v>
       </c>
       <c r="H3">
-        <v>8.973812628426501</v>
+        <v>17.991028</v>
       </c>
       <c r="I3">
-        <v>0.1392764350894158</v>
+        <v>0.1370970087225826</v>
       </c>
       <c r="J3">
-        <v>0.1392764350894158</v>
+        <v>0.09932846147431178</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>14.7886756952986</v>
+        <v>15.67257133333334</v>
       </c>
       <c r="N3">
-        <v>14.7886756952986</v>
+        <v>47.01771400000001</v>
       </c>
       <c r="O3">
-        <v>0.3175800485067096</v>
+        <v>0.3120250095359898</v>
       </c>
       <c r="P3">
-        <v>0.3175800485067096</v>
+        <v>0.3337682848888156</v>
       </c>
       <c r="Q3">
-        <v>132.7108047121746</v>
+        <v>140.9828348449987</v>
       </c>
       <c r="R3">
-        <v>132.7108047121746</v>
+        <v>845.8970090699921</v>
       </c>
       <c r="S3">
-        <v>0.04423141701153825</v>
+        <v>0.04277769545401951</v>
       </c>
       <c r="T3">
-        <v>0.04423141701153825</v>
+        <v>0.03315269022692584</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.973812628426501</v>
+        <v>8.995514</v>
       </c>
       <c r="H4">
-        <v>8.973812628426501</v>
+        <v>17.991028</v>
       </c>
       <c r="I4">
-        <v>0.1392764350894158</v>
+        <v>0.1370970087225826</v>
       </c>
       <c r="J4">
-        <v>0.1392764350894158</v>
+        <v>0.09932846147431178</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>9.66838361848388</v>
+        <v>11.031218</v>
       </c>
       <c r="N4">
-        <v>9.66838361848388</v>
+        <v>33.093654</v>
       </c>
       <c r="O4">
-        <v>0.2076241173856907</v>
+        <v>0.2196203691428032</v>
       </c>
       <c r="P4">
-        <v>0.2076241173856907</v>
+        <v>0.2349244826382646</v>
       </c>
       <c r="Q4">
-        <v>86.76226301202254</v>
+        <v>99.23147595605201</v>
       </c>
       <c r="R4">
-        <v>86.76226301202254</v>
+        <v>595.3888557363121</v>
       </c>
       <c r="S4">
-        <v>0.02891714690806538</v>
+        <v>0.0301092956640277</v>
       </c>
       <c r="T4">
-        <v>0.02891714690806538</v>
+        <v>0.02333468742310749</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.973812628426501</v>
+        <v>8.995514</v>
       </c>
       <c r="H5">
-        <v>8.973812628426501</v>
+        <v>17.991028</v>
       </c>
       <c r="I5">
-        <v>0.1392764350894158</v>
+        <v>0.1370970087225826</v>
       </c>
       <c r="J5">
-        <v>0.1392764350894158</v>
+        <v>0.09932846147431178</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>10.9309490561159</v>
+        <v>11.60895133333333</v>
       </c>
       <c r="N5">
-        <v>10.9309490561159</v>
+        <v>34.826854</v>
       </c>
       <c r="O5">
-        <v>0.2347371328569503</v>
+        <v>0.2311224542192443</v>
       </c>
       <c r="P5">
-        <v>0.2347371328569503</v>
+        <v>0.2472280836038346</v>
       </c>
       <c r="Q5">
-        <v>98.0922886804596</v>
+        <v>104.4284842443187</v>
       </c>
       <c r="R5">
-        <v>98.0922886804596</v>
+        <v>626.570905465912</v>
       </c>
       <c r="S5">
-        <v>0.0326933510474266</v>
+        <v>0.03168619712208044</v>
       </c>
       <c r="T5">
-        <v>0.0326933510474266</v>
+        <v>0.02455678517761142</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>8.973812628426501</v>
+        <v>8.995514</v>
       </c>
       <c r="H6">
-        <v>8.973812628426501</v>
+        <v>17.991028</v>
       </c>
       <c r="I6">
-        <v>0.1392764350894158</v>
+        <v>0.1370970087225826</v>
       </c>
       <c r="J6">
-        <v>0.1392764350894158</v>
+        <v>0.09932846147431178</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.95231111174481</v>
+        <v>2.099439</v>
       </c>
       <c r="N6">
-        <v>1.95231111174481</v>
+        <v>6.298317</v>
       </c>
       <c r="O6">
-        <v>0.04192498843998662</v>
+        <v>0.04179770249965122</v>
       </c>
       <c r="P6">
-        <v>0.04192498843998662</v>
+        <v>0.04471035029002197</v>
       </c>
       <c r="Q6">
-        <v>17.51967410919296</v>
+        <v>18.885532916646</v>
       </c>
       <c r="R6">
-        <v>17.51967410919296</v>
+        <v>113.313197499876</v>
       </c>
       <c r="S6">
-        <v>0.005839162931086303</v>
+        <v>0.005730339984178596</v>
       </c>
       <c r="T6">
-        <v>0.005839162931086303</v>
+        <v>0.004441010306285431</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>8.973812628426501</v>
+        <v>8.995514</v>
       </c>
       <c r="H7">
-        <v>8.973812628426501</v>
+        <v>17.991028</v>
       </c>
       <c r="I7">
-        <v>0.1392764350894158</v>
+        <v>0.1370970087225826</v>
       </c>
       <c r="J7">
-        <v>0.1392764350894158</v>
+        <v>0.09932846147431178</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.44310066731384</v>
+        <v>7.031714</v>
       </c>
       <c r="N7">
-        <v>6.44310066731384</v>
+        <v>14.063428</v>
       </c>
       <c r="O7">
-        <v>0.1383626407542117</v>
+        <v>0.1399942983981114</v>
       </c>
       <c r="P7">
-        <v>0.1383626407542117</v>
+        <v>0.09983314465729545</v>
       </c>
       <c r="Q7">
-        <v>57.81917813456415</v>
+        <v>63.253881730996</v>
       </c>
       <c r="R7">
-        <v>57.81917813456415</v>
+        <v>253.015526923984</v>
       </c>
       <c r="S7">
-        <v>0.01927065535380412</v>
+        <v>0.01919279954859771</v>
       </c>
       <c r="T7">
-        <v>0.01927065535380412</v>
+        <v>0.009916272662951565</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>8.285816674710221</v>
+        <v>8.966891666666667</v>
       </c>
       <c r="H8">
-        <v>8.285816674710221</v>
+        <v>26.900675</v>
       </c>
       <c r="I8">
-        <v>0.1285985183825291</v>
+        <v>0.1366607872590108</v>
       </c>
       <c r="J8">
-        <v>0.1285985183825291</v>
+        <v>0.1485186205241013</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.78334550536005</v>
+        <v>2.7846805</v>
       </c>
       <c r="N8">
-        <v>2.78334550536005</v>
+        <v>5.569361</v>
       </c>
       <c r="O8">
-        <v>0.05977107205645091</v>
+        <v>0.05544016620420027</v>
       </c>
       <c r="P8">
-        <v>0.05977107205645091</v>
+        <v>0.03953565392176784</v>
       </c>
       <c r="Q8">
-        <v>23.06229059979205</v>
+        <v>24.96992836977917</v>
       </c>
       <c r="R8">
-        <v>23.06229059979205</v>
+        <v>149.819570218675</v>
       </c>
       <c r="S8">
-        <v>0.007686471308594971</v>
+        <v>0.007576496759236415</v>
       </c>
       <c r="T8">
-        <v>0.007686471308594971</v>
+        <v>0.005871780781979237</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>8.285816674710221</v>
+        <v>8.966891666666667</v>
       </c>
       <c r="H9">
-        <v>8.285816674710221</v>
+        <v>26.900675</v>
       </c>
       <c r="I9">
-        <v>0.1285985183825291</v>
+        <v>0.1366607872590108</v>
       </c>
       <c r="J9">
-        <v>0.1285985183825291</v>
+        <v>0.1485186205241013</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>14.7886756952986</v>
+        <v>15.67257133333334</v>
       </c>
       <c r="N9">
-        <v>14.7886756952986</v>
+        <v>47.01771400000001</v>
       </c>
       <c r="O9">
-        <v>0.3175800485067096</v>
+        <v>0.3120250095359898</v>
       </c>
       <c r="P9">
-        <v>0.3175800485067096</v>
+        <v>0.3337682848888156</v>
       </c>
       <c r="Q9">
-        <v>122.5362556729869</v>
+        <v>140.5342492841056</v>
       </c>
       <c r="R9">
-        <v>122.5362556729869</v>
+        <v>1264.80824355695</v>
       </c>
       <c r="S9">
-        <v>0.04084032370581456</v>
+        <v>0.04264158344768872</v>
       </c>
       <c r="T9">
-        <v>0.04084032370581456</v>
+        <v>0.04957080524638215</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>8.285816674710221</v>
+        <v>8.966891666666667</v>
       </c>
       <c r="H10">
-        <v>8.285816674710221</v>
+        <v>26.900675</v>
       </c>
       <c r="I10">
-        <v>0.1285985183825291</v>
+        <v>0.1366607872590108</v>
       </c>
       <c r="J10">
-        <v>0.1285985183825291</v>
+        <v>0.1485186205241013</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>9.66838361848388</v>
+        <v>11.031218</v>
       </c>
       <c r="N10">
-        <v>9.66838361848388</v>
+        <v>33.093654</v>
       </c>
       <c r="O10">
-        <v>0.2076241173856907</v>
+        <v>0.2196203691428032</v>
       </c>
       <c r="P10">
-        <v>0.2076241173856907</v>
+        <v>0.2349244826382646</v>
       </c>
       <c r="Q10">
-        <v>80.11045420352887</v>
+        <v>98.91573675738334</v>
       </c>
       <c r="R10">
-        <v>80.11045420352887</v>
+        <v>890.24163081645</v>
       </c>
       <c r="S10">
-        <v>0.02670015387628011</v>
+        <v>0.03001349254517005</v>
       </c>
       <c r="T10">
-        <v>0.02670015387628011</v>
+        <v>0.03489066008877325</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>8.285816674710221</v>
+        <v>8.966891666666667</v>
       </c>
       <c r="H11">
-        <v>8.285816674710221</v>
+        <v>26.900675</v>
       </c>
       <c r="I11">
-        <v>0.1285985183825291</v>
+        <v>0.1366607872590108</v>
       </c>
       <c r="J11">
-        <v>0.1285985183825291</v>
+        <v>0.1485186205241013</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>10.9309490561159</v>
+        <v>11.60895133333333</v>
       </c>
       <c r="N11">
-        <v>10.9309490561159</v>
+        <v>34.826854</v>
       </c>
       <c r="O11">
-        <v>0.2347371328569503</v>
+        <v>0.2311224542192443</v>
       </c>
       <c r="P11">
-        <v>0.2347371328569503</v>
+        <v>0.2472280836038346</v>
       </c>
       <c r="Q11">
-        <v>90.57183995957307</v>
+        <v>104.0962089696055</v>
       </c>
       <c r="R11">
-        <v>90.57183995957307</v>
+        <v>936.86588072645</v>
       </c>
       <c r="S11">
-        <v>0.03018684749476669</v>
+        <v>0.03158537654683661</v>
       </c>
       <c r="T11">
-        <v>0.03018684749476669</v>
+        <v>0.03671797393165871</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>8.285816674710221</v>
+        <v>8.966891666666667</v>
       </c>
       <c r="H12">
-        <v>8.285816674710221</v>
+        <v>26.900675</v>
       </c>
       <c r="I12">
-        <v>0.1285985183825291</v>
+        <v>0.1366607872590108</v>
       </c>
       <c r="J12">
-        <v>0.1285985183825291</v>
+        <v>0.1485186205241013</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.95231111174481</v>
+        <v>2.099439</v>
       </c>
       <c r="N12">
-        <v>1.95231111174481</v>
+        <v>6.298317</v>
       </c>
       <c r="O12">
-        <v>0.04192498843998662</v>
+        <v>0.04179770249965122</v>
       </c>
       <c r="P12">
-        <v>0.04192498843998662</v>
+        <v>0.04471035029002197</v>
       </c>
       <c r="Q12">
-        <v>16.1764919639172</v>
+        <v>18.825442073775</v>
       </c>
       <c r="R12">
-        <v>16.1764919639172</v>
+        <v>169.428978663975</v>
       </c>
       <c r="S12">
-        <v>0.005391491396586938</v>
+        <v>0.00571210692922026</v>
       </c>
       <c r="T12">
-        <v>0.005391491396586938</v>
+        <v>0.006640319548223417</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>8.285816674710221</v>
+        <v>8.966891666666667</v>
       </c>
       <c r="H13">
-        <v>8.285816674710221</v>
+        <v>26.900675</v>
       </c>
       <c r="I13">
-        <v>0.1285985183825291</v>
+        <v>0.1366607872590108</v>
       </c>
       <c r="J13">
-        <v>0.1285985183825291</v>
+        <v>0.1485186205241013</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>6.44310066731384</v>
+        <v>7.031714</v>
       </c>
       <c r="N13">
-        <v>6.44310066731384</v>
+        <v>14.063428</v>
       </c>
       <c r="O13">
-        <v>0.1383626407542117</v>
+        <v>0.1399942983981114</v>
       </c>
       <c r="P13">
-        <v>0.1383626407542117</v>
+        <v>0.09983314465729545</v>
       </c>
       <c r="Q13">
-        <v>53.38635094606556</v>
+        <v>63.05261766898334</v>
       </c>
       <c r="R13">
-        <v>53.38635094606556</v>
+        <v>378.3157060139</v>
       </c>
       <c r="S13">
-        <v>0.01779323060048576</v>
+        <v>0.01913173103085878</v>
       </c>
       <c r="T13">
-        <v>0.01779323060048576</v>
+        <v>0.01482708092708458</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>17.7437348013044</v>
+        <v>17.926905</v>
       </c>
       <c r="H14">
-        <v>17.7437348013044</v>
+        <v>53.780715</v>
       </c>
       <c r="I14">
-        <v>0.2753884252574375</v>
+        <v>0.2732167446078023</v>
       </c>
       <c r="J14">
-        <v>0.2753884252574375</v>
+        <v>0.2969233152179209</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.78334550536005</v>
+        <v>2.7846805</v>
       </c>
       <c r="N14">
-        <v>2.78334550536005</v>
+        <v>5.569361</v>
       </c>
       <c r="O14">
-        <v>0.05977107205645091</v>
+        <v>0.05544016620420027</v>
       </c>
       <c r="P14">
-        <v>0.05977107205645091</v>
+        <v>0.03953565392176784</v>
       </c>
       <c r="Q14">
-        <v>49.38694450751129</v>
+        <v>49.9207027788525</v>
       </c>
       <c r="R14">
-        <v>49.38694450751129</v>
+        <v>299.524216673115</v>
       </c>
       <c r="S14">
-        <v>0.01646026140957484</v>
+        <v>0.0151471817308271</v>
       </c>
       <c r="T14">
-        <v>0.01646026140957484</v>
+        <v>0.0117390574317597</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>17.7437348013044</v>
+        <v>17.926905</v>
       </c>
       <c r="H15">
-        <v>17.7437348013044</v>
+        <v>53.780715</v>
       </c>
       <c r="I15">
-        <v>0.2753884252574375</v>
+        <v>0.2732167446078023</v>
       </c>
       <c r="J15">
-        <v>0.2753884252574375</v>
+        <v>0.2969233152179209</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>14.7886756952986</v>
+        <v>15.67257133333334</v>
       </c>
       <c r="N15">
-        <v>14.7886756952986</v>
+        <v>47.01771400000001</v>
       </c>
       <c r="O15">
-        <v>0.3175800485067096</v>
+        <v>0.3120250095359898</v>
       </c>
       <c r="P15">
-        <v>0.3175800485067096</v>
+        <v>0.3337682848888156</v>
       </c>
       <c r="Q15">
-        <v>262.4063395998743</v>
+        <v>280.96069739839</v>
       </c>
       <c r="R15">
-        <v>262.4063395998743</v>
+        <v>2528.64627658551</v>
       </c>
       <c r="S15">
-        <v>0.08745786945144336</v>
+        <v>0.08525045734164158</v>
       </c>
       <c r="T15">
-        <v>0.08745786945144336</v>
+        <v>0.09910358566378663</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>17.7437348013044</v>
+        <v>17.926905</v>
       </c>
       <c r="H16">
-        <v>17.7437348013044</v>
+        <v>53.780715</v>
       </c>
       <c r="I16">
-        <v>0.2753884252574375</v>
+        <v>0.2732167446078023</v>
       </c>
       <c r="J16">
-        <v>0.2753884252574375</v>
+        <v>0.2969233152179209</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>9.66838361848388</v>
+        <v>11.031218</v>
       </c>
       <c r="N16">
-        <v>9.66838361848388</v>
+        <v>33.093654</v>
       </c>
       <c r="O16">
-        <v>0.2076241173856907</v>
+        <v>0.2196203691428032</v>
       </c>
       <c r="P16">
-        <v>0.2076241173856907</v>
+        <v>0.2349244826382646</v>
       </c>
       <c r="Q16">
-        <v>171.5532348836538</v>
+        <v>197.75559712029</v>
       </c>
       <c r="R16">
-        <v>171.5532348836538</v>
+        <v>1779.80037408261</v>
       </c>
       <c r="S16">
-        <v>0.0571772787323107</v>
+        <v>0.06000396230676052</v>
       </c>
       <c r="T16">
-        <v>0.0571772787323107</v>
+        <v>0.06975455621080844</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>17.7437348013044</v>
+        <v>17.926905</v>
       </c>
       <c r="H17">
-        <v>17.7437348013044</v>
+        <v>53.780715</v>
       </c>
       <c r="I17">
-        <v>0.2753884252574375</v>
+        <v>0.2732167446078023</v>
       </c>
       <c r="J17">
-        <v>0.2753884252574375</v>
+        <v>0.2969233152179209</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>10.9309490561159</v>
+        <v>11.60895133333333</v>
       </c>
       <c r="N17">
-        <v>10.9309490561159</v>
+        <v>34.826854</v>
       </c>
       <c r="O17">
-        <v>0.2347371328569503</v>
+        <v>0.2311224542192443</v>
       </c>
       <c r="P17">
-        <v>0.2347371328569503</v>
+        <v>0.2472280836038346</v>
       </c>
       <c r="Q17">
-        <v>193.9558611782892</v>
+        <v>208.11256770229</v>
       </c>
       <c r="R17">
-        <v>193.9558611782892</v>
+        <v>1873.01310932061</v>
       </c>
       <c r="S17">
-        <v>0.06464388936692142</v>
+        <v>0.06314652454754774</v>
       </c>
       <c r="T17">
-        <v>0.06464388936692142</v>
+        <v>0.07340778219862389</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>17.7437348013044</v>
+        <v>17.926905</v>
       </c>
       <c r="H18">
-        <v>17.7437348013044</v>
+        <v>53.780715</v>
       </c>
       <c r="I18">
-        <v>0.2753884252574375</v>
+        <v>0.2732167446078023</v>
       </c>
       <c r="J18">
-        <v>0.2753884252574375</v>
+        <v>0.2969233152179209</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>1.95231111174481</v>
+        <v>2.099439</v>
       </c>
       <c r="N18">
-        <v>1.95231111174481</v>
+        <v>6.298317</v>
       </c>
       <c r="O18">
-        <v>0.04192498843998662</v>
+        <v>0.04179770249965122</v>
       </c>
       <c r="P18">
-        <v>0.04192498843998662</v>
+        <v>0.04471035029002197</v>
       </c>
       <c r="Q18">
-        <v>34.64129061643967</v>
+        <v>37.636443506295</v>
       </c>
       <c r="R18">
-        <v>34.64129061643967</v>
+        <v>338.727991556655</v>
       </c>
       <c r="S18">
-        <v>0.01154565654542418</v>
+        <v>0.01141983220904011</v>
       </c>
       <c r="T18">
-        <v>0.01154565654542418</v>
+        <v>0.01327554543266785</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>17.7437348013044</v>
+        <v>17.926905</v>
       </c>
       <c r="H19">
-        <v>17.7437348013044</v>
+        <v>53.780715</v>
       </c>
       <c r="I19">
-        <v>0.2753884252574375</v>
+        <v>0.2732167446078023</v>
       </c>
       <c r="J19">
-        <v>0.2753884252574375</v>
+        <v>0.2969233152179209</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>6.44310066731384</v>
+        <v>7.031714</v>
       </c>
       <c r="N19">
-        <v>6.44310066731384</v>
+        <v>14.063428</v>
       </c>
       <c r="O19">
-        <v>0.1383626407542117</v>
+        <v>0.1399942983981114</v>
       </c>
       <c r="P19">
-        <v>0.1383626407542117</v>
+        <v>0.09983314465729545</v>
       </c>
       <c r="Q19">
-        <v>114.3246695389242</v>
+        <v>126.05686886517</v>
       </c>
       <c r="R19">
-        <v>114.3246695389242</v>
+        <v>756.34121319102</v>
       </c>
       <c r="S19">
-        <v>0.0381034697517629</v>
+        <v>0.03824878647198526</v>
       </c>
       <c r="T19">
-        <v>0.0381034697517629</v>
+        <v>0.02964278828027444</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>17.0459063141213</v>
+        <v>17.20769366666666</v>
       </c>
       <c r="H20">
-        <v>17.0459063141213</v>
+        <v>51.62308099999999</v>
       </c>
       <c r="I20">
-        <v>0.2645579044940745</v>
+        <v>0.2622555341156191</v>
       </c>
       <c r="J20">
-        <v>0.2645579044940745</v>
+        <v>0.2850110183972687</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.78334550536005</v>
+        <v>2.7846805</v>
       </c>
       <c r="N20">
-        <v>2.78334550536005</v>
+        <v>5.569361</v>
       </c>
       <c r="O20">
-        <v>0.05977107205645091</v>
+        <v>0.05544016620420027</v>
       </c>
       <c r="P20">
-        <v>0.05977107205645091</v>
+        <v>0.03953565392176784</v>
       </c>
       <c r="Q20">
-        <v>47.44464672419802</v>
+        <v>47.91792900354016</v>
       </c>
       <c r="R20">
-        <v>47.44464672419802</v>
+        <v>287.5075740212409</v>
       </c>
       <c r="S20">
-        <v>0.01581290957261898</v>
+        <v>0.01453949039934124</v>
       </c>
       <c r="T20">
-        <v>0.01581290957261898</v>
+        <v>0.01126809698724502</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>17.0459063141213</v>
+        <v>17.20769366666666</v>
       </c>
       <c r="H21">
-        <v>17.0459063141213</v>
+        <v>51.62308099999999</v>
       </c>
       <c r="I21">
-        <v>0.2645579044940745</v>
+        <v>0.2622555341156191</v>
       </c>
       <c r="J21">
-        <v>0.2645579044940745</v>
+        <v>0.2850110183972687</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>14.7886756952986</v>
+        <v>15.67257133333334</v>
       </c>
       <c r="N21">
-        <v>14.7886756952986</v>
+        <v>47.01771400000001</v>
       </c>
       <c r="O21">
-        <v>0.3175800485067096</v>
+        <v>0.3120250095359898</v>
       </c>
       <c r="P21">
-        <v>0.3175800485067096</v>
+        <v>0.3337682848888156</v>
       </c>
       <c r="Q21">
-        <v>252.0863804119826</v>
+        <v>269.6888064729815</v>
       </c>
       <c r="R21">
-        <v>252.0863804119826</v>
+        <v>2427.199258256834</v>
       </c>
       <c r="S21">
-        <v>0.08401831214206162</v>
+        <v>0.08183028553329214</v>
       </c>
       <c r="T21">
-        <v>0.08401831214206162</v>
+        <v>0.09512763878487103</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>17.0459063141213</v>
+        <v>17.20769366666666</v>
       </c>
       <c r="H22">
-        <v>17.0459063141213</v>
+        <v>51.62308099999999</v>
       </c>
       <c r="I22">
-        <v>0.2645579044940745</v>
+        <v>0.2622555341156191</v>
       </c>
       <c r="J22">
-        <v>0.2645579044940745</v>
+        <v>0.2850110183972687</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>9.66838361848388</v>
+        <v>11.031218</v>
       </c>
       <c r="N22">
-        <v>9.66838361848388</v>
+        <v>33.093654</v>
       </c>
       <c r="O22">
-        <v>0.2076241173856907</v>
+        <v>0.2196203691428032</v>
       </c>
       <c r="P22">
-        <v>0.2076241173856907</v>
+        <v>0.2349244826382646</v>
       </c>
       <c r="Q22">
-        <v>164.8063613696613</v>
+        <v>189.8218201142193</v>
       </c>
       <c r="R22">
-        <v>164.8063613696613</v>
+        <v>1708.396381027974</v>
       </c>
       <c r="S22">
-        <v>0.05492860141799006</v>
+        <v>0.05759665721221528</v>
       </c>
       <c r="T22">
-        <v>0.05492860141799006</v>
+        <v>0.06695606604318326</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>17.0459063141213</v>
+        <v>17.20769366666666</v>
       </c>
       <c r="H23">
-        <v>17.0459063141213</v>
+        <v>51.62308099999999</v>
       </c>
       <c r="I23">
-        <v>0.2645579044940745</v>
+        <v>0.2622555341156191</v>
       </c>
       <c r="J23">
-        <v>0.2645579044940745</v>
+        <v>0.2850110183972687</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>10.9309490561159</v>
+        <v>11.60895133333333</v>
       </c>
       <c r="N23">
-        <v>10.9309490561159</v>
+        <v>34.826854</v>
       </c>
       <c r="O23">
-        <v>0.2347371328569503</v>
+        <v>0.2311224542192443</v>
       </c>
       <c r="P23">
-        <v>0.2347371328569503</v>
+        <v>0.2472280836038346</v>
       </c>
       <c r="Q23">
-        <v>186.3279335349843</v>
+        <v>199.7632783352415</v>
       </c>
       <c r="R23">
-        <v>186.3279335349843</v>
+        <v>1797.869505017174</v>
       </c>
       <c r="S23">
-        <v>0.06210156397558192</v>
+        <v>0.06061314267738063</v>
       </c>
       <c r="T23">
-        <v>0.06210156397558192</v>
+        <v>0.07046272788433398</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>17.0459063141213</v>
+        <v>17.20769366666666</v>
       </c>
       <c r="H24">
-        <v>17.0459063141213</v>
+        <v>51.62308099999999</v>
       </c>
       <c r="I24">
-        <v>0.2645579044940745</v>
+        <v>0.2622555341156191</v>
       </c>
       <c r="J24">
-        <v>0.2645579044940745</v>
+        <v>0.2850110183972687</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>1.95231111174481</v>
+        <v>2.099439</v>
       </c>
       <c r="N24">
-        <v>1.95231111174481</v>
+        <v>6.298317</v>
       </c>
       <c r="O24">
-        <v>0.04192498843998662</v>
+        <v>0.04179770249965122</v>
       </c>
       <c r="P24">
-        <v>0.04192498843998662</v>
+        <v>0.04471035029002197</v>
       </c>
       <c r="Q24">
-        <v>33.27891230682003</v>
+        <v>36.12650318385299</v>
       </c>
       <c r="R24">
-        <v>33.27891230682003</v>
+        <v>325.138528654677</v>
       </c>
       <c r="S24">
-        <v>0.01109158708762116</v>
+        <v>0.01096167879385178</v>
       </c>
       <c r="T24">
-        <v>0.01109158708762116</v>
+        <v>0.01274294246905778</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>17.0459063141213</v>
+        <v>17.20769366666666</v>
       </c>
       <c r="H25">
-        <v>17.0459063141213</v>
+        <v>51.62308099999999</v>
       </c>
       <c r="I25">
-        <v>0.2645579044940745</v>
+        <v>0.2622555341156191</v>
       </c>
       <c r="J25">
-        <v>0.2645579044940745</v>
+        <v>0.2850110183972687</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>6.44310066731384</v>
+        <v>7.031714</v>
       </c>
       <c r="N25">
-        <v>6.44310066731384</v>
+        <v>14.063428</v>
       </c>
       <c r="O25">
-        <v>0.1383626407542117</v>
+        <v>0.1399942983981114</v>
       </c>
       <c r="P25">
-        <v>0.1383626407542117</v>
+        <v>0.09983314465729545</v>
       </c>
       <c r="Q25">
-        <v>109.8284903474841</v>
+        <v>120.9995804636113</v>
       </c>
       <c r="R25">
-        <v>109.8284903474841</v>
+        <v>725.9974827816679</v>
       </c>
       <c r="S25">
-        <v>0.03660493029820068</v>
+        <v>0.03671427949953805</v>
       </c>
       <c r="T25">
-        <v>0.03660493029820068</v>
+        <v>0.02845354622857762</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>5.69262766584481</v>
+        <v>5.796674333333333</v>
       </c>
       <c r="H26">
-        <v>5.69262766584481</v>
+        <v>17.390023</v>
       </c>
       <c r="I26">
-        <v>0.08835139760760394</v>
+        <v>0.08834478070280039</v>
       </c>
       <c r="J26">
-        <v>0.08835139760760394</v>
+        <v>0.09601031300673289</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>2.78334550536005</v>
+        <v>2.7846805</v>
       </c>
       <c r="N26">
-        <v>2.78334550536005</v>
+        <v>5.569361</v>
       </c>
       <c r="O26">
-        <v>0.05977107205645091</v>
+        <v>0.05544016620420027</v>
       </c>
       <c r="P26">
-        <v>0.05977107205645091</v>
+        <v>0.03953565392176784</v>
       </c>
       <c r="Q26">
-        <v>15.84454962741743</v>
+        <v>16.14188598088383</v>
       </c>
       <c r="R26">
-        <v>15.84454962741743</v>
+        <v>96.85131588530299</v>
       </c>
       <c r="S26">
-        <v>0.005280857752692239</v>
+        <v>0.004897849325436878</v>
       </c>
       <c r="T26">
-        <v>0.005280857752692239</v>
+        <v>0.003795830507954797</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>5.69262766584481</v>
+        <v>5.796674333333333</v>
       </c>
       <c r="H27">
-        <v>5.69262766584481</v>
+        <v>17.390023</v>
       </c>
       <c r="I27">
-        <v>0.08835139760760394</v>
+        <v>0.08834478070280039</v>
       </c>
       <c r="J27">
-        <v>0.08835139760760394</v>
+        <v>0.09601031300673289</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>14.7886756952986</v>
+        <v>15.67257133333334</v>
       </c>
       <c r="N27">
-        <v>14.7886756952986</v>
+        <v>47.01771400000001</v>
       </c>
       <c r="O27">
-        <v>0.3175800485067096</v>
+        <v>0.3120250095359898</v>
       </c>
       <c r="P27">
-        <v>0.3175800485067096</v>
+        <v>0.3337682848888156</v>
       </c>
       <c r="Q27">
-        <v>84.18642440426355</v>
+        <v>90.84879198526912</v>
       </c>
       <c r="R27">
-        <v>84.18642440426355</v>
+        <v>817.6391278674221</v>
       </c>
       <c r="S27">
-        <v>0.02805864113785845</v>
+        <v>0.02756578104124622</v>
       </c>
       <c r="T27">
-        <v>0.02805864113785845</v>
+        <v>0.03204519750389558</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>5.69262766584481</v>
+        <v>5.796674333333333</v>
       </c>
       <c r="H28">
-        <v>5.69262766584481</v>
+        <v>17.390023</v>
       </c>
       <c r="I28">
-        <v>0.08835139760760394</v>
+        <v>0.08834478070280039</v>
       </c>
       <c r="J28">
-        <v>0.08835139760760394</v>
+        <v>0.09601031300673289</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>9.66838361848388</v>
+        <v>11.031218</v>
       </c>
       <c r="N28">
-        <v>9.66838361848388</v>
+        <v>33.093654</v>
       </c>
       <c r="O28">
-        <v>0.2076241173856907</v>
+        <v>0.2196203691428032</v>
       </c>
       <c r="P28">
-        <v>0.2076241173856907</v>
+        <v>0.2349244826382646</v>
       </c>
       <c r="Q28">
-        <v>55.03850807058209</v>
+        <v>63.94437824600467</v>
       </c>
       <c r="R28">
-        <v>55.03850807058209</v>
+        <v>575.499404214042</v>
       </c>
       <c r="S28">
-        <v>0.01834388094807099</v>
+        <v>0.01940231334978902</v>
       </c>
       <c r="T28">
-        <v>0.01834388094807099</v>
+        <v>0.02255517311104457</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>5.69262766584481</v>
+        <v>5.796674333333333</v>
       </c>
       <c r="H29">
-        <v>5.69262766584481</v>
+        <v>17.390023</v>
       </c>
       <c r="I29">
-        <v>0.08835139760760394</v>
+        <v>0.08834478070280039</v>
       </c>
       <c r="J29">
-        <v>0.08835139760760394</v>
+        <v>0.09601031300673289</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>10.9309490561159</v>
+        <v>11.60895133333333</v>
       </c>
       <c r="N29">
-        <v>10.9309490561159</v>
+        <v>34.826854</v>
       </c>
       <c r="O29">
-        <v>0.2347371328569503</v>
+        <v>0.2311224542192443</v>
       </c>
       <c r="P29">
-        <v>0.2347371328569503</v>
+        <v>0.2472280836038346</v>
       </c>
       <c r="Q29">
-        <v>62.22582301078558</v>
+        <v>67.2933102308491</v>
       </c>
       <c r="R29">
-        <v>62.22582301078558</v>
+        <v>605.6397920776419</v>
       </c>
       <c r="S29">
-        <v>0.02073935375831337</v>
+        <v>0.02041846253349216</v>
       </c>
       <c r="T29">
-        <v>0.02073935375831337</v>
+        <v>0.02373644569085889</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>5.69262766584481</v>
+        <v>5.796674333333333</v>
       </c>
       <c r="H30">
-        <v>5.69262766584481</v>
+        <v>17.390023</v>
       </c>
       <c r="I30">
-        <v>0.08835139760760394</v>
+        <v>0.08834478070280039</v>
       </c>
       <c r="J30">
-        <v>0.08835139760760394</v>
+        <v>0.09601031300673289</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>1.95231111174481</v>
+        <v>2.099439</v>
       </c>
       <c r="N30">
-        <v>1.95231111174481</v>
+        <v>6.298317</v>
       </c>
       <c r="O30">
-        <v>0.04192498843998662</v>
+        <v>0.04179770249965122</v>
       </c>
       <c r="P30">
-        <v>0.04192498843998662</v>
+        <v>0.04471035029002197</v>
       </c>
       <c r="Q30">
-        <v>11.11378024705474</v>
+        <v>12.169764165699</v>
       </c>
       <c r="R30">
-        <v>11.11378024705474</v>
+        <v>109.527877491291</v>
       </c>
       <c r="S30">
-        <v>0.003704131323355456</v>
+        <v>0.003692608861212579</v>
       </c>
       <c r="T30">
-        <v>0.003704131323355456</v>
+        <v>0.004292654725985679</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>5.69262766584481</v>
+        <v>5.796674333333333</v>
       </c>
       <c r="H31">
-        <v>5.69262766584481</v>
+        <v>17.390023</v>
       </c>
       <c r="I31">
-        <v>0.08835139760760394</v>
+        <v>0.08834478070280039</v>
       </c>
       <c r="J31">
-        <v>0.08835139760760394</v>
+        <v>0.09601031300673289</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>6.44310066731384</v>
+        <v>7.031714</v>
       </c>
       <c r="N31">
-        <v>6.44310066731384</v>
+        <v>14.063428</v>
       </c>
       <c r="O31">
-        <v>0.1383626407542117</v>
+        <v>0.1399942983981114</v>
       </c>
       <c r="P31">
-        <v>0.1383626407542117</v>
+        <v>0.09983314465729545</v>
       </c>
       <c r="Q31">
-        <v>36.67817311257392</v>
+        <v>40.76055606314066</v>
       </c>
       <c r="R31">
-        <v>36.67817311257392</v>
+        <v>244.563336378844</v>
       </c>
       <c r="S31">
-        <v>0.01222453268731342</v>
+        <v>0.01236776559162355</v>
       </c>
       <c r="T31">
-        <v>0.01222453268731342</v>
+        <v>0.009585011466993381</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>6.68976706171239</v>
+        <v>6.7205465</v>
       </c>
       <c r="H32">
-        <v>6.68976706171239</v>
+        <v>13.441093</v>
       </c>
       <c r="I32">
-        <v>0.1038273191689394</v>
+        <v>0.1024251445921847</v>
       </c>
       <c r="J32">
-        <v>0.1038273191689394</v>
+        <v>0.07420827137966444</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>2.78334550536005</v>
+        <v>2.7846805</v>
       </c>
       <c r="N32">
-        <v>2.78334550536005</v>
+        <v>5.569361</v>
       </c>
       <c r="O32">
-        <v>0.05977107205645091</v>
+        <v>0.05544016620420027</v>
       </c>
       <c r="P32">
-        <v>0.05977107205645091</v>
+        <v>0.03953565392176784</v>
       </c>
       <c r="Q32">
-        <v>18.61993308312289</v>
+        <v>18.71457478789325</v>
       </c>
       <c r="R32">
-        <v>18.61993308312289</v>
+        <v>74.85829915157299</v>
       </c>
       <c r="S32">
-        <v>0.006205870175474804</v>
+        <v>0.005678467039679966</v>
       </c>
       <c r="T32">
-        <v>0.006205870175474804</v>
+        <v>0.002933872535399043</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>6.68976706171239</v>
+        <v>6.7205465</v>
       </c>
       <c r="H33">
-        <v>6.68976706171239</v>
+        <v>13.441093</v>
       </c>
       <c r="I33">
-        <v>0.1038273191689394</v>
+        <v>0.1024251445921847</v>
       </c>
       <c r="J33">
-        <v>0.1038273191689394</v>
+        <v>0.07420827137966444</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>14.7886756952986</v>
+        <v>15.67257133333334</v>
       </c>
       <c r="N33">
-        <v>14.7886756952986</v>
+        <v>47.01771400000001</v>
       </c>
       <c r="O33">
-        <v>0.3175800485067096</v>
+        <v>0.3120250095359898</v>
       </c>
       <c r="P33">
-        <v>0.3175800485067096</v>
+        <v>0.3337682848888156</v>
       </c>
       <c r="Q33">
-        <v>98.93279555275515</v>
+        <v>105.3282444202337</v>
       </c>
       <c r="R33">
-        <v>98.93279555275515</v>
+        <v>631.9694665214021</v>
       </c>
       <c r="S33">
-        <v>0.0329734850579934</v>
+        <v>0.03195920671810157</v>
       </c>
       <c r="T33">
-        <v>0.0329734850579934</v>
+        <v>0.02476836746295438</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>6.68976706171239</v>
+        <v>6.7205465</v>
       </c>
       <c r="H34">
-        <v>6.68976706171239</v>
+        <v>13.441093</v>
       </c>
       <c r="I34">
-        <v>0.1038273191689394</v>
+        <v>0.1024251445921847</v>
       </c>
       <c r="J34">
-        <v>0.1038273191689394</v>
+        <v>0.07420827137966444</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>9.66838361848388</v>
+        <v>11.031218</v>
       </c>
       <c r="N34">
-        <v>9.66838361848388</v>
+        <v>33.093654</v>
       </c>
       <c r="O34">
-        <v>0.2076241173856907</v>
+        <v>0.2196203691428032</v>
       </c>
       <c r="P34">
-        <v>0.2076241173856907</v>
+        <v>0.2349244826382646</v>
       </c>
       <c r="Q34">
-        <v>64.67923427093311</v>
+        <v>74.13581352063702</v>
       </c>
       <c r="R34">
-        <v>64.67923427093311</v>
+        <v>444.814881123822</v>
       </c>
       <c r="S34">
-        <v>0.02155705550297345</v>
+        <v>0.0224946480648406</v>
       </c>
       <c r="T34">
-        <v>0.02155705550297345</v>
+        <v>0.01743333976134761</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>6.68976706171239</v>
+        <v>6.7205465</v>
       </c>
       <c r="H35">
-        <v>6.68976706171239</v>
+        <v>13.441093</v>
       </c>
       <c r="I35">
-        <v>0.1038273191689394</v>
+        <v>0.1024251445921847</v>
       </c>
       <c r="J35">
-        <v>0.1038273191689394</v>
+        <v>0.07420827137966444</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>10.9309490561159</v>
+        <v>11.60895133333333</v>
       </c>
       <c r="N35">
-        <v>10.9309490561159</v>
+        <v>34.826854</v>
       </c>
       <c r="O35">
-        <v>0.2347371328569503</v>
+        <v>0.2311224542192443</v>
       </c>
       <c r="P35">
-        <v>0.2347371328569503</v>
+        <v>0.2472280836038346</v>
       </c>
       <c r="Q35">
-        <v>73.12550294886029</v>
+        <v>78.01849725190365</v>
       </c>
       <c r="R35">
-        <v>73.12550294886029</v>
+        <v>468.110983511422</v>
       </c>
       <c r="S35">
-        <v>0.02437212721394031</v>
+        <v>0.02367275079190669</v>
       </c>
       <c r="T35">
-        <v>0.02437212721394031</v>
+        <v>0.01834636872074773</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>6.68976706171239</v>
+        <v>6.7205465</v>
       </c>
       <c r="H36">
-        <v>6.68976706171239</v>
+        <v>13.441093</v>
       </c>
       <c r="I36">
-        <v>0.1038273191689394</v>
+        <v>0.1024251445921847</v>
       </c>
       <c r="J36">
-        <v>0.1038273191689394</v>
+        <v>0.07420827137966444</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>1.95231111174481</v>
+        <v>2.099439</v>
       </c>
       <c r="N36">
-        <v>1.95231111174481</v>
+        <v>6.298317</v>
       </c>
       <c r="O36">
-        <v>0.04192498843998662</v>
+        <v>0.04179770249965122</v>
       </c>
       <c r="P36">
-        <v>0.04192498843998662</v>
+        <v>0.04471035029002197</v>
       </c>
       <c r="Q36">
-        <v>13.06050656956553</v>
+        <v>14.1093774234135</v>
       </c>
       <c r="R36">
-        <v>13.06050656956553</v>
+        <v>84.656264540481</v>
       </c>
       <c r="S36">
-        <v>0.004352959155912586</v>
+        <v>0.004281135722147897</v>
       </c>
       <c r="T36">
-        <v>0.004352959155912586</v>
+        <v>0.003317877807801809</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>6.68976706171239</v>
+        <v>6.7205465</v>
       </c>
       <c r="H37">
-        <v>6.68976706171239</v>
+        <v>13.441093</v>
       </c>
       <c r="I37">
-        <v>0.1038273191689394</v>
+        <v>0.1024251445921847</v>
       </c>
       <c r="J37">
-        <v>0.1038273191689394</v>
+        <v>0.07420827137966444</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>6.44310066731384</v>
+        <v>7.031714</v>
       </c>
       <c r="N37">
-        <v>6.44310066731384</v>
+        <v>14.063428</v>
       </c>
       <c r="O37">
-        <v>0.1383626407542117</v>
+        <v>0.1399942983981114</v>
       </c>
       <c r="P37">
-        <v>0.1383626407542117</v>
+        <v>0.09983314465729545</v>
       </c>
       <c r="Q37">
-        <v>43.10284261949325</v>
+        <v>47.256960911701</v>
       </c>
       <c r="R37">
-        <v>43.10284261949325</v>
+        <v>189.027843646804</v>
       </c>
       <c r="S37">
-        <v>0.01436582206264484</v>
+        <v>0.01433893625550801</v>
       </c>
       <c r="T37">
-        <v>0.01436582206264484</v>
+        <v>0.007408445091413879</v>
       </c>
     </row>
   </sheetData>
